--- a/data/CRM_Testdata - Copy.xlsx
+++ b/data/CRM_Testdata - Copy.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\schandr3\eclipse-workspace\Dynamics-CRM\TestNG\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\schandr3\eclipse-workspace\Dynamics-CRM\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE658F19-B38D-4972-9C34-D07C49A9C3F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CE3C17C-FDA4-4229-80F4-005EB7585F56}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="599" activeTab="1" xr2:uid="{442E3441-3F3C-4A77-BB17-E93CAE512719}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="599" activeTab="2" xr2:uid="{442E3441-3F3C-4A77-BB17-E93CAE512719}"/>
   </bookViews>
   <sheets>
     <sheet name="Driver" sheetId="4" r:id="rId1"/>
@@ -38,42 +38,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>Chandrasekar, Suthamani</author>
-  </authors>
-  <commentList>
-    <comment ref="AF3" authorId="0" shapeId="0" xr:uid="{E88032BA-8AB1-460B-8BEC-EDA0D77F03E6}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Chandrasekar, Suthamani:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Getting "TPR has to be affiliated"error if OLM is selected</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1727" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1742" uniqueCount="466">
   <si>
     <t>UserName</t>
   </si>
@@ -1332,94 +1298,145 @@
     <t>AffiliateGroupAfterReactivation</t>
   </si>
   <si>
-    <t>Failed</t>
-  </si>
-  <si>
-    <t>7000560096</t>
-  </si>
-  <si>
-    <t>7000560097</t>
-  </si>
-  <si>
-    <t>7000560098</t>
+    <t>2000488060</t>
+  </si>
+  <si>
+    <t>2000488061</t>
+  </si>
+  <si>
+    <t>2000488062</t>
+  </si>
+  <si>
+    <t>2000488063</t>
+  </si>
+  <si>
+    <t>2000488064</t>
+  </si>
+  <si>
+    <t>2000488065</t>
+  </si>
+  <si>
+    <t>7000563667</t>
   </si>
   <si>
     <t>OLM</t>
   </si>
   <si>
-    <t>2021_08_09_07_45_12</t>
-  </si>
-  <si>
-    <t>2021_08_09_07_47_46</t>
+    <t>2000502733</t>
+  </si>
+  <si>
+    <t>2000502734</t>
+  </si>
+  <si>
+    <t>2000502735</t>
+  </si>
+  <si>
+    <t>2000502736</t>
+  </si>
+  <si>
+    <t>2000502739</t>
+  </si>
+  <si>
+    <t>2000502740</t>
+  </si>
+  <si>
+    <t>2000502741</t>
+  </si>
+  <si>
+    <t>2000502742</t>
+  </si>
+  <si>
+    <t>2000502746</t>
+  </si>
+  <si>
+    <t>2000502749</t>
   </si>
   <si>
     <t>PASSED</t>
   </si>
   <si>
-    <t>2021_08_10_04_10_59</t>
-  </si>
-  <si>
-    <t>2000487384</t>
-  </si>
-  <si>
-    <t>2021_08_10_04_14_32</t>
-  </si>
-  <si>
-    <t>Affiliate</t>
-  </si>
-  <si>
-    <t>2021_08_10_04_25_13</t>
-  </si>
-  <si>
-    <t>2000487386</t>
-  </si>
-  <si>
-    <t>2021_08_10_04_27_07</t>
-  </si>
-  <si>
-    <t>2021_08_10_04_30_53</t>
-  </si>
-  <si>
-    <t>2021_08_10_04_36_19</t>
-  </si>
-  <si>
-    <t>2021_08_10_04_37_32</t>
-  </si>
-  <si>
-    <t>2021_08_10_04_38_43</t>
-  </si>
-  <si>
-    <t>2021_08_10_04_40_00</t>
-  </si>
-  <si>
-    <t>2021_08_10_04_41_18</t>
-  </si>
-  <si>
-    <t>2021_08_10_04_42_35</t>
-  </si>
-  <si>
-    <t>2021_08_10_04_43_46</t>
-  </si>
-  <si>
-    <t>2021_08_10_04_47_02</t>
-  </si>
-  <si>
-    <t>7000560102</t>
-  </si>
-  <si>
-    <t>2021_08_10_04_49_22</t>
-  </si>
-  <si>
-    <t>7000560103</t>
-  </si>
-  <si>
-    <t>2021_08_10_04_53_01</t>
-  </si>
-  <si>
-    <t>7000560104</t>
-  </si>
-  <si>
-    <t>2021_08_10_04_55_40</t>
+    <t>7000564102</t>
+  </si>
+  <si>
+    <t>2021_10_27_03_24_59</t>
+  </si>
+  <si>
+    <t>7000564104</t>
+  </si>
+  <si>
+    <t>2021_10_27_03_28_37</t>
+  </si>
+  <si>
+    <t>7000564105</t>
+  </si>
+  <si>
+    <t>2021_10_27_03_31_15</t>
+  </si>
+  <si>
+    <t>7000564106</t>
+  </si>
+  <si>
+    <t>2021_10_27_03_33_17</t>
+  </si>
+  <si>
+    <t>7000564107</t>
+  </si>
+  <si>
+    <t>2021_10_27_03_36_51</t>
+  </si>
+  <si>
+    <t>2021_10_27_03_37_53</t>
+  </si>
+  <si>
+    <t>2021_10_27_03_38_50</t>
+  </si>
+  <si>
+    <t>7000564109</t>
+  </si>
+  <si>
+    <t>2021_10_27_03_42_08</t>
+  </si>
+  <si>
+    <t>2021_10_27_03_48_03</t>
+  </si>
+  <si>
+    <t>2021_10_27_03_49_24</t>
+  </si>
+  <si>
+    <t>2021_10_27_03_50_39</t>
+  </si>
+  <si>
+    <t>2021_10_27_03_51_40</t>
+  </si>
+  <si>
+    <t>2021_10_27_03_52_50</t>
+  </si>
+  <si>
+    <t>2021_10_27_03_54_05</t>
+  </si>
+  <si>
+    <t>2021_10_27_03_54_52</t>
+  </si>
+  <si>
+    <t>2021_10_27_03_56_09</t>
+  </si>
+  <si>
+    <t>2021_10_27_03_57_26</t>
+  </si>
+  <si>
+    <t>2021_10_27_03_58_43</t>
+  </si>
+  <si>
+    <t>2021_10_27_03_59_53</t>
+  </si>
+  <si>
+    <t>2021_10_27_04_00_56</t>
+  </si>
+  <si>
+    <t>2021_10_27_04_02_07</t>
+  </si>
+  <si>
+    <t>2021_10_27_04_05_25</t>
   </si>
 </sst>
 </file>
@@ -1429,7 +1446,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1535,23 +1552,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Source Sans Pro"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Source Sans Pro"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1685,7 +1696,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1795,7 +1806,11 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2119,8 +2134,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{088699A3-39D2-44E6-8F71-47C2709580BF}">
   <dimension ref="A1:I53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="C43" sqref="C30:C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2187,7 +2202,9 @@
       <c r="G2" s="21" t="s">
         <v>393</v>
       </c>
-      <c r="H2" s="21"/>
+      <c r="H2" s="21" t="s">
+        <v>427</v>
+      </c>
       <c r="I2" s="64" t="s">
         <v>358</v>
       </c>
@@ -2214,7 +2231,9 @@
       <c r="G3" s="23" t="s">
         <v>393</v>
       </c>
-      <c r="H3" s="23"/>
+      <c r="H3" s="23" t="s">
+        <v>428</v>
+      </c>
       <c r="I3" s="24"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -2239,7 +2258,9 @@
       <c r="G4" s="23" t="s">
         <v>393</v>
       </c>
-      <c r="H4" s="23"/>
+      <c r="H4" s="23" t="s">
+        <v>429</v>
+      </c>
       <c r="I4" s="25"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -2264,7 +2285,9 @@
       <c r="G5" s="23" t="s">
         <v>393</v>
       </c>
-      <c r="H5" s="23"/>
+      <c r="H5" s="23" t="s">
+        <v>430</v>
+      </c>
       <c r="I5" s="25"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -2275,7 +2298,7 @@
         <v>71</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D6" s="46" t="s">
         <v>9</v>
@@ -2284,10 +2307,10 @@
         <v>62</v>
       </c>
       <c r="F6" s="46" t="s">
-        <v>426</v>
+        <v>392</v>
       </c>
       <c r="G6" s="46" t="s">
-        <v>431</v>
+        <v>393</v>
       </c>
       <c r="H6" s="46"/>
       <c r="I6" s="47"/>
@@ -2325,7 +2348,7 @@
         <v>74</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D8" s="46" t="s">
         <v>9</v>
@@ -2334,13 +2357,13 @@
         <v>62</v>
       </c>
       <c r="F8" s="46" t="s">
-        <v>419</v>
+        <v>392</v>
       </c>
       <c r="G8" s="46" t="s">
-        <v>433</v>
+        <v>393</v>
       </c>
       <c r="H8" s="46" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="I8" s="47"/>
     </row>
@@ -2348,7 +2371,7 @@
       <c r="A9" s="22">
         <v>8</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="70" t="s">
         <v>75</v>
       </c>
       <c r="C9" s="23" t="s">
@@ -2391,7 +2414,9 @@
       <c r="G10" s="23" t="s">
         <v>393</v>
       </c>
-      <c r="H10" s="23"/>
+      <c r="H10" s="23" t="s">
+        <v>432</v>
+      </c>
       <c r="I10" s="25"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
@@ -2416,7 +2441,9 @@
       <c r="G11" s="23" t="s">
         <v>393</v>
       </c>
-      <c r="H11" s="23"/>
+      <c r="H11" s="23" t="s">
+        <v>433</v>
+      </c>
       <c r="I11" s="25"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
@@ -2441,7 +2468,9 @@
       <c r="G12" s="23" t="s">
         <v>393</v>
       </c>
-      <c r="H12" s="23"/>
+      <c r="H12" s="23" t="s">
+        <v>434</v>
+      </c>
       <c r="I12" s="25"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
@@ -2477,7 +2506,7 @@
         <v>369</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D14" s="46" t="s">
         <v>9</v>
@@ -2486,10 +2515,10 @@
         <v>62</v>
       </c>
       <c r="F14" s="46" t="s">
-        <v>426</v>
+        <v>392</v>
       </c>
       <c r="G14" s="46" t="s">
-        <v>434</v>
+        <v>393</v>
       </c>
       <c r="H14" s="46"/>
       <c r="I14" s="47"/>
@@ -2516,7 +2545,9 @@
       <c r="G15" s="23" t="s">
         <v>393</v>
       </c>
-      <c r="H15" s="23"/>
+      <c r="H15" s="23" t="s">
+        <v>436</v>
+      </c>
       <c r="I15" s="25"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
@@ -2541,7 +2572,9 @@
       <c r="G16" s="23" t="s">
         <v>393</v>
       </c>
-      <c r="H16" s="23"/>
+      <c r="H16" s="23" t="s">
+        <v>435</v>
+      </c>
       <c r="I16" s="25"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
@@ -2573,7 +2606,7 @@
       <c r="A18" s="22">
         <v>17</v>
       </c>
-      <c r="B18" s="23" t="s">
+      <c r="B18" s="70" t="s">
         <v>101</v>
       </c>
       <c r="C18" s="23" t="s">
@@ -2627,7 +2660,7 @@
         <v>370</v>
       </c>
       <c r="C20" s="23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D20" s="46" t="s">
         <v>9</v>
@@ -2636,10 +2669,10 @@
         <v>62</v>
       </c>
       <c r="F20" s="46" t="s">
-        <v>426</v>
+        <v>392</v>
       </c>
       <c r="G20" s="46" t="s">
-        <v>435</v>
+        <v>393</v>
       </c>
       <c r="H20" s="46"/>
       <c r="I20" s="46"/>
@@ -2691,7 +2724,9 @@
       <c r="G22" s="23" t="s">
         <v>393</v>
       </c>
-      <c r="H22" s="23"/>
+      <c r="H22" s="23" t="s">
+        <v>419</v>
+      </c>
       <c r="I22" s="25"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
@@ -2716,7 +2751,9 @@
       <c r="G23" s="23" t="s">
         <v>393</v>
       </c>
-      <c r="H23" s="23"/>
+      <c r="H23" s="23" t="s">
+        <v>420</v>
+      </c>
       <c r="I23" s="25"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
@@ -2741,7 +2778,9 @@
       <c r="G24" s="23" t="s">
         <v>393</v>
       </c>
-      <c r="H24" s="23"/>
+      <c r="H24" s="23" t="s">
+        <v>421</v>
+      </c>
       <c r="I24" s="25"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
@@ -2766,7 +2805,9 @@
       <c r="G25" s="23" t="s">
         <v>393</v>
       </c>
-      <c r="H25" s="23"/>
+      <c r="H25" s="23" t="s">
+        <v>422</v>
+      </c>
       <c r="I25" s="25"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
@@ -2791,7 +2832,9 @@
       <c r="G26" s="23" t="s">
         <v>393</v>
       </c>
-      <c r="H26" s="23"/>
+      <c r="H26" s="23" t="s">
+        <v>423</v>
+      </c>
       <c r="I26" s="25"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
@@ -2816,7 +2859,9 @@
       <c r="G27" s="23" t="s">
         <v>393</v>
       </c>
-      <c r="H27" s="23"/>
+      <c r="H27" s="23" t="s">
+        <v>424</v>
+      </c>
       <c r="I27" s="25"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
@@ -2886,10 +2931,10 @@
         <v>62</v>
       </c>
       <c r="F30" s="48" t="s">
-        <v>426</v>
+        <v>437</v>
       </c>
       <c r="G30" s="48" t="s">
-        <v>436</v>
+        <v>452</v>
       </c>
       <c r="H30" s="48"/>
       <c r="I30" s="49"/>
@@ -2902,7 +2947,7 @@
         <v>127</v>
       </c>
       <c r="C31" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D31" s="30" t="s">
         <v>48</v>
@@ -2911,10 +2956,10 @@
         <v>62</v>
       </c>
       <c r="F31" s="30" t="s">
-        <v>392</v>
+        <v>437</v>
       </c>
       <c r="G31" s="30" t="s">
-        <v>393</v>
+        <v>453</v>
       </c>
       <c r="H31" s="30"/>
       <c r="I31" s="29"/>
@@ -2927,7 +2972,7 @@
         <v>132</v>
       </c>
       <c r="C32" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D32" s="30" t="s">
         <v>48</v>
@@ -2936,10 +2981,10 @@
         <v>62</v>
       </c>
       <c r="F32" s="30" t="s">
-        <v>392</v>
+        <v>437</v>
       </c>
       <c r="G32" s="30" t="s">
-        <v>393</v>
+        <v>454</v>
       </c>
       <c r="H32" s="30"/>
       <c r="I32" s="29"/>
@@ -2952,7 +2997,7 @@
         <v>139</v>
       </c>
       <c r="C33" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D33" s="30" t="s">
         <v>48</v>
@@ -2961,10 +3006,10 @@
         <v>62</v>
       </c>
       <c r="F33" s="30" t="s">
-        <v>392</v>
+        <v>437</v>
       </c>
       <c r="G33" s="30" t="s">
-        <v>393</v>
+        <v>455</v>
       </c>
       <c r="H33" s="30"/>
       <c r="I33" s="29"/>
@@ -2986,10 +3031,10 @@
         <v>62</v>
       </c>
       <c r="F34" s="48" t="s">
-        <v>426</v>
+        <v>437</v>
       </c>
       <c r="G34" s="48" t="s">
-        <v>437</v>
+        <v>456</v>
       </c>
       <c r="H34" s="48"/>
       <c r="I34" s="49"/>
@@ -3011,10 +3056,10 @@
         <v>62</v>
       </c>
       <c r="F35" s="48" t="s">
-        <v>426</v>
+        <v>437</v>
       </c>
       <c r="G35" s="48" t="s">
-        <v>438</v>
+        <v>457</v>
       </c>
       <c r="H35" s="48"/>
       <c r="I35" s="49"/>
@@ -3027,7 +3072,7 @@
         <v>153</v>
       </c>
       <c r="C36" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D36" s="30" t="s">
         <v>48</v>
@@ -3036,10 +3081,10 @@
         <v>62</v>
       </c>
       <c r="F36" s="30" t="s">
-        <v>392</v>
+        <v>437</v>
       </c>
       <c r="G36" s="30" t="s">
-        <v>393</v>
+        <v>458</v>
       </c>
       <c r="H36" s="30"/>
       <c r="I36" s="29"/>
@@ -3052,7 +3097,7 @@
         <v>158</v>
       </c>
       <c r="C37" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D37" s="30" t="s">
         <v>48</v>
@@ -3061,10 +3106,10 @@
         <v>62</v>
       </c>
       <c r="F37" s="30" t="s">
-        <v>392</v>
+        <v>437</v>
       </c>
       <c r="G37" s="30" t="s">
-        <v>393</v>
+        <v>459</v>
       </c>
       <c r="H37" s="30"/>
       <c r="I37" s="29"/>
@@ -3086,10 +3131,10 @@
         <v>62</v>
       </c>
       <c r="F38" s="48" t="s">
-        <v>426</v>
+        <v>437</v>
       </c>
       <c r="G38" s="48" t="s">
-        <v>439</v>
+        <v>460</v>
       </c>
       <c r="H38" s="48"/>
       <c r="I38" s="49"/>
@@ -3111,10 +3156,10 @@
         <v>62</v>
       </c>
       <c r="F39" s="48" t="s">
-        <v>426</v>
+        <v>437</v>
       </c>
       <c r="G39" s="48" t="s">
-        <v>440</v>
+        <v>461</v>
       </c>
       <c r="H39" s="48"/>
       <c r="I39" s="49"/>
@@ -3127,7 +3172,7 @@
         <v>169</v>
       </c>
       <c r="C40" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D40" s="30" t="s">
         <v>48</v>
@@ -3136,10 +3181,10 @@
         <v>62</v>
       </c>
       <c r="F40" s="30" t="s">
-        <v>392</v>
+        <v>437</v>
       </c>
       <c r="G40" s="30" t="s">
-        <v>393</v>
+        <v>462</v>
       </c>
       <c r="H40" s="30"/>
       <c r="I40" s="29"/>
@@ -3152,7 +3197,7 @@
         <v>176</v>
       </c>
       <c r="C41" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D41" s="30" t="s">
         <v>48</v>
@@ -3161,10 +3206,10 @@
         <v>62</v>
       </c>
       <c r="F41" s="30" t="s">
-        <v>392</v>
+        <v>437</v>
       </c>
       <c r="G41" s="30" t="s">
-        <v>393</v>
+        <v>463</v>
       </c>
       <c r="H41" s="30"/>
       <c r="I41" s="29"/>
@@ -3186,10 +3231,10 @@
         <v>62</v>
       </c>
       <c r="F42" s="48" t="s">
-        <v>426</v>
+        <v>437</v>
       </c>
       <c r="G42" s="48" t="s">
-        <v>441</v>
+        <v>464</v>
       </c>
       <c r="H42" s="48"/>
       <c r="I42" s="49"/>
@@ -3211,10 +3256,10 @@
         <v>62</v>
       </c>
       <c r="F43" s="52" t="s">
-        <v>426</v>
+        <v>437</v>
       </c>
       <c r="G43" s="52" t="s">
-        <v>442</v>
+        <v>465</v>
       </c>
       <c r="H43" s="52"/>
       <c r="I43" s="53"/>
@@ -3252,7 +3297,7 @@
         <v>309</v>
       </c>
       <c r="C45" s="23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D45" s="50" t="s">
         <v>307</v>
@@ -3261,13 +3306,13 @@
         <v>308</v>
       </c>
       <c r="F45" s="50" t="s">
-        <v>426</v>
+        <v>392</v>
       </c>
       <c r="G45" s="50" t="s">
-        <v>444</v>
+        <v>393</v>
       </c>
       <c r="H45" s="50" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="I45" s="51"/>
     </row>
@@ -3279,7 +3324,7 @@
         <v>313</v>
       </c>
       <c r="C46" s="23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D46" s="50" t="s">
         <v>307</v>
@@ -3288,13 +3333,13 @@
         <v>308</v>
       </c>
       <c r="F46" s="50" t="s">
-        <v>426</v>
+        <v>392</v>
       </c>
       <c r="G46" s="50" t="s">
-        <v>446</v>
+        <v>393</v>
       </c>
       <c r="H46" s="50" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="I46" s="51"/>
     </row>
@@ -3306,7 +3351,7 @@
         <v>312</v>
       </c>
       <c r="C47" s="23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D47" s="50" t="s">
         <v>307</v>
@@ -3315,13 +3360,13 @@
         <v>308</v>
       </c>
       <c r="F47" s="50" t="s">
-        <v>426</v>
+        <v>392</v>
       </c>
       <c r="G47" s="50" t="s">
-        <v>448</v>
+        <v>393</v>
       </c>
       <c r="H47" s="50" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="I47" s="51"/>
     </row>
@@ -3347,7 +3392,9 @@
       <c r="G48" s="27" t="s">
         <v>393</v>
       </c>
-      <c r="H48" s="27"/>
+      <c r="H48" s="27" t="s">
+        <v>444</v>
+      </c>
       <c r="I48" s="28"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
@@ -3372,7 +3419,9 @@
       <c r="G49" s="27" t="s">
         <v>393</v>
       </c>
-      <c r="H49" s="27"/>
+      <c r="H49" s="27" t="s">
+        <v>446</v>
+      </c>
       <c r="I49" s="28"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
@@ -3447,14 +3496,16 @@
       <c r="G52" s="27" t="s">
         <v>393</v>
       </c>
-      <c r="H52" s="27"/>
+      <c r="H52" s="27" t="s">
+        <v>450</v>
+      </c>
       <c r="I52" s="27"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" s="27">
         <v>52</v>
       </c>
-      <c r="B53" s="27" t="s">
+      <c r="B53" s="70" t="s">
         <v>344</v>
       </c>
       <c r="C53" s="23" t="s">
@@ -3472,7 +3523,9 @@
       <c r="G53" s="27" t="s">
         <v>393</v>
       </c>
-      <c r="H53" s="27"/>
+      <c r="H53" s="27" t="s">
+        <v>425</v>
+      </c>
       <c r="I53" s="27"/>
     </row>
   </sheetData>
@@ -3491,11 +3544,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9856292-E718-4F44-A2EB-03A51CA4C0E1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9856292-E718-4F44-A2EB-03A51CA4C0E1}">
   <dimension ref="A1:DB29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AF10" sqref="AF10"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3963,7 +4016,7 @@
         <v>350</v>
       </c>
       <c r="AF2" s="16" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="AG2" s="55" t="s">
         <v>350</v>
@@ -4074,7 +4127,7 @@
         <v>395</v>
       </c>
       <c r="AF3" s="16" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="AG3" s="55" t="s">
         <v>395</v>
@@ -4292,7 +4345,7 @@
         <v>99</v>
       </c>
       <c r="AF5" s="16" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="AG5" s="55" t="s">
         <v>350</v>
@@ -4413,7 +4466,7 @@
         <v>99</v>
       </c>
       <c r="AF6" s="16" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="AG6" s="55" t="s">
         <v>350</v>
@@ -4529,7 +4582,7 @@
         <v>350</v>
       </c>
       <c r="AF7" s="16" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="AG7" s="55" t="s">
         <v>350</v>
@@ -4641,7 +4694,7 @@
         <v>350</v>
       </c>
       <c r="AF8" s="16" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="AG8" s="32" t="s">
         <v>350</v>
@@ -4750,7 +4803,7 @@
         <v>350</v>
       </c>
       <c r="AF9" s="16" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="AG9" s="32" t="s">
         <v>350</v>
@@ -4857,7 +4910,7 @@
         <v>350</v>
       </c>
       <c r="AF10" s="16" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="AG10" s="55" t="s">
         <v>350</v>
@@ -4973,7 +5026,7 @@
         <v>350</v>
       </c>
       <c r="AF11" s="16" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="AG11" s="55" t="s">
         <v>350</v>
@@ -5103,7 +5156,7 @@
         <v>350</v>
       </c>
       <c r="AF12" s="16" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="AG12" s="55" t="s">
         <v>350</v>
@@ -5225,7 +5278,7 @@
         <v>99</v>
       </c>
       <c r="AF13" s="16" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="AG13" s="55" t="s">
         <v>350</v>
@@ -5346,7 +5399,7 @@
         <v>350</v>
       </c>
       <c r="AF14" s="16" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="AG14" s="55" t="s">
         <v>350</v>
@@ -5461,7 +5514,7 @@
         <v>350</v>
       </c>
       <c r="AF15" s="16" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="AG15" s="55" t="s">
         <v>350</v>
@@ -5576,7 +5629,7 @@
         <v>350</v>
       </c>
       <c r="AF16" s="16" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="AG16" s="55" t="s">
         <v>350</v>
@@ -5691,7 +5744,7 @@
         <v>350</v>
       </c>
       <c r="AF17" s="16" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="AG17" s="55" t="s">
         <v>350</v>
@@ -5811,7 +5864,7 @@
         <v>350</v>
       </c>
       <c r="AF18" s="16" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="AG18" s="55" t="s">
         <v>350</v>
@@ -5949,7 +6002,7 @@
       </c>
       <c r="AE19" s="16"/>
       <c r="AF19" s="16" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="AG19" s="55" t="s">
         <v>350</v>
@@ -6172,7 +6225,7 @@
         <v>99</v>
       </c>
       <c r="AF22" s="16" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="AG22" s="55" t="s">
         <v>350</v>
@@ -6608,7 +6661,7 @@
         <v>350</v>
       </c>
       <c r="AF29" s="16" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="AG29" s="55" t="s">
         <v>350</v>
@@ -6627,7 +6680,6 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -6635,8 +6687,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D073B921-24DF-4F78-BD1E-1984D65F897D}">
   <dimension ref="A1:BB17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12:AN13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7390,43 +7442,67 @@
       <c r="C12" t="s">
         <v>125</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="71" t="s">
         <v>47</v>
       </c>
-      <c r="G12" t="s">
+      <c r="F12" s="71"/>
+      <c r="G12" s="71" t="s">
         <v>48</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H12" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="I12" t="s">
+      <c r="I12" s="71" t="s">
         <v>170</v>
       </c>
-      <c r="J12" t="s">
+      <c r="J12" s="71" t="s">
         <v>171</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="K12" s="71"/>
+      <c r="L12" s="71"/>
+      <c r="M12" s="71"/>
+      <c r="N12" s="71"/>
+      <c r="O12" s="71"/>
+      <c r="P12" s="71"/>
+      <c r="Q12" s="71" t="s">
         <v>172</v>
       </c>
-      <c r="R12" s="1" t="s">
+      <c r="R12" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="T12" s="13" t="s">
+      <c r="S12" s="71"/>
+      <c r="T12" s="73" t="s">
         <v>173</v>
       </c>
-      <c r="U12" s="13" t="s">
+      <c r="U12" s="73" t="s">
         <v>174</v>
       </c>
-      <c r="V12" s="13"/>
-      <c r="W12" s="13" t="s">
+      <c r="V12" s="73"/>
+      <c r="W12" s="73" t="s">
         <v>170</v>
       </c>
-      <c r="X12" t="s">
+      <c r="X12" s="71" t="s">
         <v>175</v>
       </c>
+      <c r="Y12" s="71"/>
+      <c r="Z12" s="71"/>
+      <c r="AA12" s="71"/>
+      <c r="AB12" s="71"/>
+      <c r="AC12" s="71"/>
+      <c r="AD12" s="71"/>
+      <c r="AE12" s="71"/>
+      <c r="AF12" s="71"/>
+      <c r="AG12" s="71"/>
+      <c r="AH12" s="71"/>
+      <c r="AI12" s="71"/>
+      <c r="AJ12" s="71"/>
+      <c r="AK12" s="71"/>
+      <c r="AL12" s="71"/>
+      <c r="AM12" s="71"/>
+      <c r="AN12" s="71"/>
     </row>
     <row r="13" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A13">
@@ -7438,45 +7514,69 @@
       <c r="C13" t="s">
         <v>140</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="71" t="s">
         <v>47</v>
       </c>
-      <c r="G13" t="s">
+      <c r="F13" s="71"/>
+      <c r="G13" s="71" t="s">
         <v>48</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H13" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="I13" t="s">
+      <c r="I13" s="71" t="s">
         <v>170</v>
       </c>
-      <c r="J13" t="s">
+      <c r="J13" s="71" t="s">
         <v>177</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="K13" s="71"/>
+      <c r="L13" s="71"/>
+      <c r="M13" s="71"/>
+      <c r="N13" s="71"/>
+      <c r="O13" s="71"/>
+      <c r="P13" s="71"/>
+      <c r="Q13" s="71" t="s">
         <v>178</v>
       </c>
-      <c r="R13" s="1" t="s">
+      <c r="R13" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="T13" s="13" t="s">
+      <c r="S13" s="71"/>
+      <c r="T13" s="73" t="s">
         <v>179</v>
       </c>
-      <c r="U13" s="13" t="s">
+      <c r="U13" s="73" t="s">
         <v>180</v>
       </c>
-      <c r="V13" s="13" t="s">
+      <c r="V13" s="73" t="s">
         <v>22</v>
       </c>
-      <c r="W13" s="13" t="s">
+      <c r="W13" s="73" t="s">
         <v>181</v>
       </c>
-      <c r="X13" t="s">
+      <c r="X13" s="71" t="s">
         <v>182</v>
       </c>
+      <c r="Y13" s="71"/>
+      <c r="Z13" s="71"/>
+      <c r="AA13" s="71"/>
+      <c r="AB13" s="71"/>
+      <c r="AC13" s="71"/>
+      <c r="AD13" s="71"/>
+      <c r="AE13" s="71"/>
+      <c r="AF13" s="71"/>
+      <c r="AG13" s="71"/>
+      <c r="AH13" s="71"/>
+      <c r="AI13" s="71"/>
+      <c r="AJ13" s="71"/>
+      <c r="AK13" s="71"/>
+      <c r="AL13" s="71"/>
+      <c r="AM13" s="71"/>
+      <c r="AN13" s="71"/>
     </row>
     <row r="14" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A14">
@@ -8608,13 +8708,39 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64F77A26-17A6-43DF-A115-F9EC24E62EB0}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64F77A26-17A6-43DF-A115-F9EC24E62EB0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="0be14d6d-d8a1-45f7-9f98-2db40f8691c4"/>
+    <ds:schemaRef ds:uri="567c5c99-f8da-409a-bc28-51b94ad9a241"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E980A1B9-8C22-45F7-8344-5E520FA354EB}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E980A1B9-8C22-45F7-8344-5E520FA354EB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AB0B3A61-2E64-4CE7-BDD4-6ECB945D22FD}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AB0B3A61-2E64-4CE7-BDD4-6ECB945D22FD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>